--- a/Code/Results/Cases/Case_7_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_11/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.89395790234621</v>
+        <v>15.68954455182162</v>
       </c>
       <c r="C2">
-        <v>14.93493438055047</v>
+        <v>8.593168419988222</v>
       </c>
       <c r="D2">
-        <v>2.272023040310757</v>
+        <v>2.638725720905407</v>
       </c>
       <c r="E2">
-        <v>6.318174593713424</v>
+        <v>7.06372742010081</v>
       </c>
       <c r="F2">
-        <v>41.30696074381395</v>
+        <v>39.36716179573339</v>
       </c>
       <c r="G2">
-        <v>2.110906863536405</v>
+        <v>2.146725041174702</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.822095383702507</v>
+        <v>6.150257404809735</v>
       </c>
       <c r="K2">
-        <v>18.95926537037069</v>
+        <v>13.72947180202531</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.57121995172542</v>
+        <v>12.81038208204171</v>
       </c>
       <c r="N2">
-        <v>15.1620365736273</v>
+        <v>17.37217913896576</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.53253818995184</v>
+        <v>14.82935084284267</v>
       </c>
       <c r="C3">
-        <v>13.93947709889616</v>
+        <v>8.083308261404126</v>
       </c>
       <c r="D3">
-        <v>2.242775940090346</v>
+        <v>2.517758017335097</v>
       </c>
       <c r="E3">
-        <v>6.272112288372727</v>
+        <v>6.927182036136209</v>
       </c>
       <c r="F3">
-        <v>39.92252797877052</v>
+        <v>38.48720968804444</v>
       </c>
       <c r="G3">
-        <v>2.122259786365476</v>
+        <v>2.155422524630772</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.839005370195767</v>
+        <v>6.147255029742876</v>
       </c>
       <c r="K3">
-        <v>17.83343077486957</v>
+        <v>13.05981575751708</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.89380277349459</v>
+        <v>12.39117219568058</v>
       </c>
       <c r="N3">
-        <v>15.32508349206073</v>
+        <v>17.47069000319225</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.66935552118483</v>
+        <v>14.2870566523453</v>
       </c>
       <c r="C4">
-        <v>13.30517398292983</v>
+        <v>7.760567305008685</v>
       </c>
       <c r="D4">
-        <v>2.225435611057041</v>
+        <v>2.451790754777776</v>
       </c>
       <c r="E4">
-        <v>6.246748297168522</v>
+        <v>6.846095741989812</v>
       </c>
       <c r="F4">
-        <v>39.0894060213329</v>
+        <v>37.96440771766555</v>
       </c>
       <c r="G4">
-        <v>2.129383697073095</v>
+        <v>2.160904920280518</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.851783179889533</v>
+        <v>6.147882940374732</v>
       </c>
       <c r="K4">
-        <v>17.12270228232899</v>
+        <v>12.64131920779228</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.47537700566791</v>
+        <v>12.13540380893999</v>
       </c>
       <c r="N4">
-        <v>15.43030044329262</v>
+        <v>17.53624426632047</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.31094575298905</v>
+        <v>14.06275083088537</v>
       </c>
       <c r="C5">
-        <v>13.04094497810621</v>
+        <v>7.626722840336004</v>
       </c>
       <c r="D5">
-        <v>2.21851336124847</v>
+        <v>2.426853295152446</v>
       </c>
       <c r="E5">
-        <v>6.237131726638859</v>
+        <v>6.813765404057076</v>
       </c>
       <c r="F5">
-        <v>38.75432719565242</v>
+        <v>37.75582355422362</v>
       </c>
       <c r="G5">
-        <v>2.132328127901694</v>
+        <v>2.163176330194108</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.85757427006912</v>
+        <v>6.148744251041714</v>
       </c>
       <c r="K5">
-        <v>16.82839161765831</v>
+        <v>12.46914925333383</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.30442652026025</v>
+        <v>12.03171057477521</v>
       </c>
       <c r="N5">
-        <v>15.47441770223993</v>
+        <v>17.5641932472397</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.25103757019508</v>
+        <v>14.0253126705679</v>
       </c>
       <c r="C6">
-        <v>12.99672572413691</v>
+        <v>7.604361492517868</v>
       </c>
       <c r="D6">
-        <v>2.217372329523875</v>
+        <v>2.422706451889606</v>
       </c>
       <c r="E6">
-        <v>6.235577936879512</v>
+        <v>6.808440628883905</v>
       </c>
       <c r="F6">
-        <v>38.69896031510006</v>
+        <v>37.72145958785519</v>
       </c>
       <c r="G6">
-        <v>2.132819627065132</v>
+        <v>2.163555791939991</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.858570640569074</v>
+        <v>6.148923378472186</v>
       </c>
       <c r="K6">
-        <v>16.77924629405575</v>
+        <v>12.44046910769553</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.2760199341049</v>
+        <v>12.014528499929</v>
       </c>
       <c r="N6">
-        <v>15.4818171061301</v>
+        <v>17.56890766187922</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.66454850554146</v>
+        <v>14.28404466227462</v>
       </c>
       <c r="C7">
-        <v>13.30163364346268</v>
+        <v>7.758771476371777</v>
       </c>
       <c r="D7">
-        <v>2.225341685535341</v>
+        <v>2.451454870293379</v>
       </c>
       <c r="E7">
-        <v>6.246615710597232</v>
+        <v>6.845656810049983</v>
       </c>
       <c r="F7">
-        <v>39.08486887101596</v>
+        <v>37.96157653100689</v>
       </c>
       <c r="G7">
-        <v>2.129423235530478</v>
+        <v>2.160935400337331</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.851858939019552</v>
+        <v>6.147892125741369</v>
       </c>
       <c r="K7">
-        <v>17.11875173556587</v>
+        <v>12.63900355175031</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.47307301217351</v>
+        <v>12.13400302981265</v>
       </c>
       <c r="N7">
-        <v>15.43089045432402</v>
+        <v>17.53661624482825</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.43029428986368</v>
+        <v>15.39600895045329</v>
       </c>
       <c r="C8">
-        <v>14.59651329663236</v>
+        <v>8.419435471625199</v>
       </c>
       <c r="D8">
-        <v>2.261803231406061</v>
+        <v>2.597731768858633</v>
       </c>
       <c r="E8">
-        <v>6.301677837408524</v>
+        <v>7.016087691161228</v>
       </c>
       <c r="F8">
-        <v>40.82618707502494</v>
+        <v>39.06016190509825</v>
       </c>
       <c r="G8">
-        <v>2.114791359202006</v>
+        <v>2.149695407339695</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.827417506961069</v>
+        <v>6.14869945112142</v>
       </c>
       <c r="K8">
-        <v>18.57522104137558</v>
+        <v>13.50021077343536</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.33826498106819</v>
+        <v>12.66557252163147</v>
       </c>
       <c r="N8">
-        <v>15.21716755497854</v>
+        <v>17.4050690620532</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.74322325001209</v>
+        <v>17.45663265349244</v>
       </c>
       <c r="C9">
-        <v>17.04314117956431</v>
+        <v>9.63482967383125</v>
       </c>
       <c r="D9">
-        <v>2.338805004783378</v>
+        <v>2.88018230966746</v>
       </c>
       <c r="E9">
-        <v>6.433484649776175</v>
+        <v>7.371247408879424</v>
       </c>
       <c r="F9">
-        <v>44.36992296748192</v>
+        <v>41.35071240441562</v>
       </c>
       <c r="G9">
-        <v>2.087170791866933</v>
+        <v>2.12870552783338</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.799381713279625</v>
+        <v>6.170641565532868</v>
       </c>
       <c r="K9">
-        <v>21.44903784105543</v>
+        <v>15.12349563392475</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.00877719066962</v>
+        <v>13.71599138055907</v>
       </c>
       <c r="N9">
-        <v>14.84086280628618</v>
+        <v>17.18927163263509</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.17532641735367</v>
+        <v>18.89035725810287</v>
       </c>
       <c r="C10">
-        <v>18.74173557451053</v>
+        <v>10.52051869834808</v>
       </c>
       <c r="D10">
-        <v>2.399744303891336</v>
+        <v>3.070402293248046</v>
       </c>
       <c r="E10">
-        <v>6.545853744009955</v>
+        <v>7.643837169955639</v>
       </c>
       <c r="F10">
-        <v>47.04950410208629</v>
+        <v>43.11409025706175</v>
       </c>
       <c r="G10">
-        <v>2.067308800434257</v>
+        <v>2.113810466579007</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.792269018582371</v>
+        <v>6.20026169895419</v>
       </c>
       <c r="K10">
-        <v>23.58369428886747</v>
+        <v>16.26886498585035</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.21448685308814</v>
+        <v>14.48707861374749</v>
       </c>
       <c r="N10">
-        <v>14.59430892322338</v>
+        <v>17.0594448946782</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.2432018304187</v>
+        <v>19.52453168832271</v>
       </c>
       <c r="C11">
-        <v>19.48812822857254</v>
+        <v>10.92773348804929</v>
       </c>
       <c r="D11">
-        <v>2.428700406744159</v>
+        <v>3.15313148113884</v>
       </c>
       <c r="E11">
-        <v>6.600593567614556</v>
+        <v>7.770181512008041</v>
       </c>
       <c r="F11">
-        <v>48.28600157512694</v>
+        <v>43.93361347793764</v>
       </c>
       <c r="G11">
-        <v>2.058309155343232</v>
+        <v>2.107120263214298</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.792301250470781</v>
+        <v>6.216921981578518</v>
       </c>
       <c r="K11">
-        <v>24.51966326023205</v>
+        <v>16.81038059452875</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.77491247400204</v>
+        <v>14.83688042177073</v>
       </c>
       <c r="N11">
-        <v>14.4897127767733</v>
+        <v>17.00738463720859</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.64234493649549</v>
+        <v>19.7763519861081</v>
       </c>
       <c r="C12">
-        <v>19.76722629887103</v>
+        <v>11.07964056930042</v>
       </c>
       <c r="D12">
-        <v>2.439872192656281</v>
+        <v>3.183910534059779</v>
       </c>
       <c r="E12">
-        <v>6.621866473467001</v>
+        <v>7.818349220271161</v>
       </c>
       <c r="F12">
-        <v>48.75695682873772</v>
+        <v>44.24645923136146</v>
       </c>
       <c r="G12">
-        <v>2.054900818159143</v>
+        <v>2.104596563311227</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.792815433757197</v>
+        <v>6.223711469567612</v>
       </c>
       <c r="K12">
-        <v>24.86933906790648</v>
+        <v>17.04306244048163</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.04165941043673</v>
+        <v>14.96915496710522</v>
       </c>
       <c r="N12">
-        <v>14.45130304175382</v>
+        <v>16.98874997129055</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.55660998277896</v>
+        <v>19.71925416011909</v>
       </c>
       <c r="C13">
-        <v>19.70727097579153</v>
+        <v>11.04702543527314</v>
       </c>
       <c r="D13">
-        <v>2.43745642967773</v>
+        <v>3.177306125936768</v>
       </c>
       <c r="E13">
-        <v>6.617260366649728</v>
+        <v>7.807961199922199</v>
       </c>
       <c r="F13">
-        <v>48.65540283514483</v>
+        <v>44.17897006196677</v>
       </c>
       <c r="G13">
-        <v>2.055634976508982</v>
+        <v>2.105139698145445</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.792681819516917</v>
+        <v>6.222227482446875</v>
       </c>
       <c r="K13">
-        <v>24.79423652719517</v>
+        <v>16.99311795762906</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.98437510549887</v>
+        <v>14.94067619404611</v>
       </c>
       <c r="N13">
-        <v>14.4595199785315</v>
+        <v>16.99271402144564</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.27614265893583</v>
+        <v>19.54412683479755</v>
       </c>
       <c r="C14">
-        <v>19.51115933230258</v>
+        <v>10.94027651249113</v>
       </c>
       <c r="D14">
-        <v>2.429615186072091</v>
+        <v>3.155674692519225</v>
       </c>
       <c r="E14">
-        <v>6.602332652418362</v>
+        <v>7.774137867042629</v>
       </c>
       <c r="F14">
-        <v>48.32469129045431</v>
+        <v>43.95930097434764</v>
       </c>
       <c r="G14">
-        <v>2.058028790914582</v>
+        <v>2.106912457503431</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.792333295502193</v>
+        <v>6.217470790626249</v>
       </c>
       <c r="K14">
-        <v>24.54852478377416</v>
+        <v>16.82959923669219</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.79693235994892</v>
+        <v>14.84776670058412</v>
       </c>
       <c r="N14">
-        <v>14.48652805740613</v>
+        <v>17.00582947121892</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.10367590753068</v>
+        <v>19.44155311446479</v>
       </c>
       <c r="C15">
-        <v>19.39058139891674</v>
+        <v>10.87459315875198</v>
       </c>
       <c r="D15">
-        <v>2.424840081328449</v>
+        <v>3.14235333789378</v>
       </c>
       <c r="E15">
-        <v>6.593260602918038</v>
+        <v>7.753461961158107</v>
       </c>
       <c r="F15">
-        <v>48.12248299138783</v>
+        <v>43.82507521943423</v>
       </c>
       <c r="G15">
-        <v>2.059494847669563</v>
+        <v>2.107999510600401</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.792186200763529</v>
+        <v>6.214620461252643</v>
       </c>
       <c r="K15">
-        <v>24.3974093271251</v>
+        <v>16.72894598184538</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.68649621200827</v>
+        <v>14.79083138814314</v>
       </c>
       <c r="N15">
-        <v>14.50323100391799</v>
+        <v>17.01400594267734</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.1047878354115</v>
+        <v>18.84854805545142</v>
       </c>
       <c r="C16">
-        <v>18.6924472085343</v>
+        <v>10.49358044570652</v>
       </c>
       <c r="D16">
-        <v>2.397879172995863</v>
+        <v>3.064919019008052</v>
       </c>
       <c r="E16">
-        <v>6.542351173031944</v>
+        <v>7.635626198995513</v>
       </c>
       <c r="F16">
-        <v>46.96906350498079</v>
+        <v>43.06088218578046</v>
       </c>
       <c r="G16">
-        <v>2.067897212990459</v>
+        <v>2.114249195596666</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.792335329387904</v>
+        <v>6.199238905383264</v>
       </c>
       <c r="K16">
-        <v>23.52184426886209</v>
+        <v>16.23531190606123</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.17887055163467</v>
+        <v>14.46419416002781</v>
       </c>
       <c r="N16">
-        <v>14.60130576400024</v>
+        <v>17.06299404493865</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.48233753697459</v>
+        <v>18.48012257812679</v>
       </c>
       <c r="C17">
-        <v>18.2575845151144</v>
+        <v>10.25566516473102</v>
       </c>
       <c r="D17">
-        <v>2.381674870871599</v>
+        <v>3.016439610450241</v>
       </c>
       <c r="E17">
-        <v>6.512063233314398</v>
+        <v>7.563927154134592</v>
       </c>
       <c r="F17">
-        <v>46.26607782334948</v>
+        <v>42.59651939907272</v>
       </c>
       <c r="G17">
-        <v>2.073057243481856</v>
+        <v>2.118103351789147</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.793285498273735</v>
+        <v>6.190634327964214</v>
       </c>
       <c r="K17">
-        <v>22.97591906333757</v>
+        <v>15.9400159597462</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.86617493171332</v>
+        <v>14.26352401596594</v>
       </c>
       <c r="N17">
-        <v>14.66348150606985</v>
+        <v>17.09488863217976</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.12067588411391</v>
+        <v>18.26651478138832</v>
       </c>
       <c r="C18">
-        <v>18.00497048348494</v>
+        <v>10.11726362599835</v>
       </c>
       <c r="D18">
-        <v>2.372468744431489</v>
+        <v>2.988197572180489</v>
       </c>
       <c r="E18">
-        <v>6.494981827653445</v>
+        <v>7.522908740017497</v>
       </c>
       <c r="F18">
-        <v>45.86337215541077</v>
+        <v>42.33106092182911</v>
       </c>
       <c r="G18">
-        <v>2.076028883580875</v>
+        <v>2.120328389561459</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.794137476978266</v>
+        <v>6.18598364925387</v>
       </c>
       <c r="K18">
-        <v>22.65859406878818</v>
+        <v>15.76912671977188</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.68584340364744</v>
+        <v>14.14801431650017</v>
       </c>
       <c r="N18">
-        <v>14.69994745600911</v>
+        <v>17.11388746459728</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.99758922821564</v>
+        <v>18.19389983949145</v>
       </c>
       <c r="C19">
-        <v>17.91900497277854</v>
+        <v>10.07013332667206</v>
       </c>
       <c r="D19">
-        <v>2.3693705099512</v>
+        <v>2.978573912157765</v>
       </c>
       <c r="E19">
-        <v>6.489255996729508</v>
+        <v>7.509059021883171</v>
       </c>
       <c r="F19">
-        <v>45.72729916264701</v>
+        <v>42.24146140786743</v>
       </c>
       <c r="G19">
-        <v>2.077035825745305</v>
+        <v>2.121083236959691</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.794477486775788</v>
+        <v>6.184459607760892</v>
       </c>
       <c r="K19">
-        <v>22.55057428003918</v>
+        <v>15.71108887918235</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.62470425920005</v>
+        <v>14.10889112376734</v>
       </c>
       <c r="N19">
-        <v>14.71241205394891</v>
+        <v>17.12043035659878</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.54897365046162</v>
+        <v>18.5195181320087</v>
       </c>
       <c r="C20">
-        <v>18.30413275122579</v>
+        <v>10.28115247674787</v>
       </c>
       <c r="D20">
-        <v>2.383387836651451</v>
+        <v>3.021637394033526</v>
       </c>
       <c r="E20">
-        <v>6.51525215014685</v>
+        <v>7.571536875728153</v>
       </c>
       <c r="F20">
-        <v>46.34074174521692</v>
+        <v>42.64578283757493</v>
       </c>
       <c r="G20">
-        <v>2.072507601185873</v>
+        <v>2.117692236480054</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.793152515601346</v>
+        <v>6.191519253934519</v>
       </c>
       <c r="K20">
-        <v>23.03437569559003</v>
+        <v>15.97155896196179</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.8995112756537</v>
+        <v>14.28489537367629</v>
       </c>
       <c r="N20">
-        <v>14.65678917596894</v>
+        <v>17.09142521827755</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.35866223469926</v>
+        <v>19.59322191233133</v>
       </c>
       <c r="C21">
-        <v>19.56885618556143</v>
+        <v>10.97169290631805</v>
       </c>
       <c r="D21">
-        <v>2.431912478500641</v>
+        <v>3.162043265144365</v>
       </c>
       <c r="E21">
-        <v>6.606702314918755</v>
+        <v>7.784063892817068</v>
       </c>
       <c r="F21">
-        <v>48.4217533185488</v>
+        <v>44.02375470002585</v>
       </c>
       <c r="G21">
-        <v>2.057325727104863</v>
+        <v>2.106391512754795</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.792421768126171</v>
+        <v>6.218854716132414</v>
       </c>
       <c r="K21">
-        <v>24.62082280516134</v>
+        <v>16.87773122272904</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.85208961090843</v>
+        <v>14.8750618577733</v>
       </c>
       <c r="N21">
-        <v>14.47856161826669</v>
+        <v>17.00194722765492</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.51104366137434</v>
+        <v>20.35389652255815</v>
       </c>
       <c r="C22">
-        <v>20.37490455548692</v>
+        <v>11.40966062314875</v>
       </c>
       <c r="D22">
-        <v>2.464848881593265</v>
+        <v>3.250608928552261</v>
       </c>
       <c r="E22">
-        <v>6.669655223709768</v>
+        <v>7.924847375934438</v>
       </c>
       <c r="F22">
-        <v>49.79784744035445</v>
+        <v>44.93900233850267</v>
       </c>
       <c r="G22">
-        <v>2.047398236392006</v>
+        <v>2.099061188162267</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.794887732553627</v>
+        <v>6.2395329281958</v>
       </c>
       <c r="K22">
-        <v>25.63010666608249</v>
+        <v>17.54802469344214</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.62172176888845</v>
+        <v>15.25966655571446</v>
       </c>
       <c r="N22">
-        <v>14.36913211352107</v>
+        <v>16.94979985999967</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.89866095105943</v>
+        <v>19.94695030388275</v>
       </c>
       <c r="C23">
-        <v>19.94649004774839</v>
+        <v>11.17710104731615</v>
       </c>
       <c r="D23">
-        <v>2.447147085221386</v>
+        <v>3.203632457022675</v>
       </c>
       <c r="E23">
-        <v>6.63575605845321</v>
+        <v>7.849539264372857</v>
       </c>
       <c r="F23">
-        <v>49.06183764737681</v>
+        <v>44.44916168749128</v>
       </c>
       <c r="G23">
-        <v>2.052699225647427</v>
+        <v>2.102969377523904</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.793290683245867</v>
+        <v>6.228231352459138</v>
       </c>
       <c r="K23">
-        <v>25.09384621255219</v>
+        <v>17.19226315350053</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.21287922205895</v>
+        <v>15.05450766268099</v>
       </c>
       <c r="N23">
-        <v>14.42684937926531</v>
+        <v>16.97702622720025</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.51885934238397</v>
+        <v>18.50171299232054</v>
       </c>
       <c r="C24">
-        <v>18.28309642726465</v>
+        <v>10.26963471734273</v>
       </c>
       <c r="D24">
-        <v>2.382613064501437</v>
+        <v>3.019288630187683</v>
       </c>
       <c r="E24">
-        <v>6.513809409894137</v>
+        <v>7.568095889369088</v>
       </c>
       <c r="F24">
-        <v>46.30698168264873</v>
+        <v>42.62350613472847</v>
       </c>
       <c r="G24">
-        <v>2.072756078271698</v>
+        <v>2.117878072763833</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.793211687215886</v>
+        <v>6.191118257963085</v>
       </c>
       <c r="K24">
-        <v>23.0079582673303</v>
+        <v>15.95730185551025</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.88444165591528</v>
+        <v>14.27523382049302</v>
       </c>
       <c r="N24">
-        <v>14.65981254303423</v>
+        <v>17.09298897049284</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.81897379862108</v>
+        <v>16.91291699291221</v>
       </c>
       <c r="C25">
-        <v>16.39290863470127</v>
+        <v>9.314968724250027</v>
       </c>
       <c r="D25">
-        <v>2.317291083787865</v>
+        <v>2.806784130793859</v>
       </c>
       <c r="E25">
-        <v>6.395176992270812</v>
+        <v>7.273045501994437</v>
       </c>
       <c r="F25">
-        <v>43.39795094973507</v>
+        <v>40.7167850283834</v>
       </c>
       <c r="G25">
-        <v>2.094549575735899</v>
+        <v>2.134282533334957</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.804703991214709</v>
+        <v>6.162417004679237</v>
       </c>
       <c r="K25">
-        <v>20.63008611410255</v>
+        <v>14.69225777243588</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.56039278862747</v>
+        <v>13.43159635760631</v>
       </c>
       <c r="N25">
-        <v>14.93772581884617</v>
+        <v>17.24284470387126</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.68954455182162</v>
+        <v>12.61152110080095</v>
       </c>
       <c r="C2">
-        <v>8.593168419988222</v>
+        <v>7.877950091592247</v>
       </c>
       <c r="D2">
-        <v>2.638725720905407</v>
+        <v>5.868128567518236</v>
       </c>
       <c r="E2">
-        <v>7.06372742010081</v>
+        <v>9.154294012250656</v>
       </c>
       <c r="F2">
-        <v>39.36716179573339</v>
+        <v>26.86712410518142</v>
       </c>
       <c r="G2">
-        <v>2.146725041174702</v>
+        <v>32.56137925183911</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.560981349111661</v>
       </c>
       <c r="J2">
-        <v>6.150257404809735</v>
+        <v>11.34301684139341</v>
       </c>
       <c r="K2">
-        <v>13.72947180202531</v>
+        <v>16.95254709955774</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.324932429687188</v>
       </c>
       <c r="M2">
-        <v>12.81038208204171</v>
+        <v>11.41979703175798</v>
       </c>
       <c r="N2">
-        <v>17.37217913896576</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.87824943765335</v>
+      </c>
+      <c r="P2">
+        <v>13.59571672302704</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.82935084284267</v>
+        <v>11.7701663179963</v>
       </c>
       <c r="C3">
-        <v>8.083308261404126</v>
+        <v>7.345801130806477</v>
       </c>
       <c r="D3">
-        <v>2.517758017335097</v>
+        <v>5.597287638477018</v>
       </c>
       <c r="E3">
-        <v>6.927182036136209</v>
+        <v>8.795417024265825</v>
       </c>
       <c r="F3">
-        <v>38.48720968804444</v>
+        <v>26.35484617885942</v>
       </c>
       <c r="G3">
-        <v>2.155422524630772</v>
+        <v>31.88764532947668</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.802340964400504</v>
       </c>
       <c r="J3">
-        <v>6.147255029742876</v>
+        <v>11.30900196224625</v>
       </c>
       <c r="K3">
-        <v>13.05981575751708</v>
+        <v>16.93164839160731</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.199299506671034</v>
       </c>
       <c r="M3">
-        <v>12.39117219568058</v>
+        <v>10.69198307363085</v>
       </c>
       <c r="N3">
-        <v>17.47069000319225</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.35581974200215</v>
+      </c>
+      <c r="P3">
+        <v>13.76213108032809</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.2870566523453</v>
+        <v>11.22289060647754</v>
       </c>
       <c r="C4">
-        <v>7.760567305008685</v>
+        <v>6.999782766346121</v>
       </c>
       <c r="D4">
-        <v>2.451790754777776</v>
+        <v>5.424424819730499</v>
       </c>
       <c r="E4">
-        <v>6.846095741989812</v>
+        <v>8.56704308749266</v>
       </c>
       <c r="F4">
-        <v>37.96440771766555</v>
+        <v>26.04751176801756</v>
       </c>
       <c r="G4">
-        <v>2.160904920280518</v>
+        <v>31.48691866862121</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.95575508277392</v>
       </c>
       <c r="J4">
-        <v>6.147882940374732</v>
+        <v>11.29279528011461</v>
       </c>
       <c r="K4">
-        <v>12.64131920779228</v>
+        <v>16.92713378824874</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.120020120192985</v>
       </c>
       <c r="M4">
-        <v>12.13540380893999</v>
+        <v>10.21958319642184</v>
       </c>
       <c r="N4">
-        <v>17.53624426632047</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.023975586808</v>
+      </c>
+      <c r="P4">
+        <v>13.86651563139051</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.06275083088537</v>
+        <v>10.99211886695019</v>
       </c>
       <c r="C5">
-        <v>7.626722840336004</v>
+        <v>6.853901639582088</v>
       </c>
       <c r="D5">
-        <v>2.426853295152446</v>
+        <v>5.352393682327263</v>
       </c>
       <c r="E5">
-        <v>6.813765404057076</v>
+        <v>8.472026295770711</v>
       </c>
       <c r="F5">
-        <v>37.75582355422362</v>
+        <v>25.92416781683464</v>
       </c>
       <c r="G5">
-        <v>2.163176330194108</v>
+        <v>31.32697372041412</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.019606194291584</v>
       </c>
       <c r="J5">
-        <v>6.148744251041714</v>
+        <v>11.28733861191298</v>
       </c>
       <c r="K5">
-        <v>12.46914925333383</v>
+        <v>16.92732129298073</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.087183399284945</v>
       </c>
       <c r="M5">
-        <v>12.03171057477521</v>
+        <v>10.02065573652706</v>
       </c>
       <c r="N5">
-        <v>17.5641932472397</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.88610954444643</v>
+      </c>
+      <c r="P5">
+        <v>13.909620692995</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.0253126705679</v>
+        <v>10.95333009740093</v>
       </c>
       <c r="C6">
-        <v>7.604361492517868</v>
+        <v>6.829382875704898</v>
       </c>
       <c r="D6">
-        <v>2.422706451889606</v>
+        <v>5.340339091641319</v>
       </c>
       <c r="E6">
-        <v>6.808440628883905</v>
+        <v>8.456132979809739</v>
       </c>
       <c r="F6">
-        <v>37.72145958785519</v>
+        <v>25.90380366342426</v>
       </c>
       <c r="G6">
-        <v>2.163555791939991</v>
+        <v>31.30062029380734</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>3.030289782336717</v>
       </c>
       <c r="J6">
-        <v>6.148923378472186</v>
+        <v>11.28650100335802</v>
       </c>
       <c r="K6">
-        <v>12.44046910769553</v>
+        <v>16.92747298872213</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.081699156899527</v>
       </c>
       <c r="M6">
-        <v>12.014528499929</v>
+        <v>9.987236237816148</v>
       </c>
       <c r="N6">
-        <v>17.56890766187922</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.86306245276905</v>
+      </c>
+      <c r="P6">
+        <v>13.91681290236713</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.28404466227462</v>
+        <v>11.21980977631068</v>
       </c>
       <c r="C7">
-        <v>7.758771476371777</v>
+        <v>6.997835142083854</v>
       </c>
       <c r="D7">
-        <v>2.451454870293379</v>
+        <v>5.423459722179183</v>
       </c>
       <c r="E7">
-        <v>6.845656810049983</v>
+        <v>8.565769471151238</v>
       </c>
       <c r="F7">
-        <v>37.96157653100689</v>
+        <v>26.04584051604181</v>
       </c>
       <c r="G7">
-        <v>2.160935400337331</v>
+        <v>31.48474788917449</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.956610773598582</v>
       </c>
       <c r="J7">
-        <v>6.147892125741369</v>
+        <v>11.2927170809865</v>
       </c>
       <c r="K7">
-        <v>12.63900355175031</v>
+        <v>16.92712819367793</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.119579405733509</v>
       </c>
       <c r="M7">
-        <v>12.13400302981265</v>
+        <v>10.21692638754237</v>
       </c>
       <c r="N7">
-        <v>17.53661624482825</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.02212674369763</v>
+      </c>
+      <c r="P7">
+        <v>13.8670946466693</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.39600895045329</v>
+        <v>12.32776656315917</v>
       </c>
       <c r="C8">
-        <v>8.419435471625199</v>
+        <v>7.698448657153572</v>
       </c>
       <c r="D8">
-        <v>2.597731768858633</v>
+        <v>5.776139715458204</v>
       </c>
       <c r="E8">
-        <v>7.016087691161228</v>
+        <v>9.032253989438226</v>
       </c>
       <c r="F8">
-        <v>39.06016190509825</v>
+        <v>26.68904695710381</v>
       </c>
       <c r="G8">
-        <v>2.149695407339695</v>
+        <v>32.32644945294182</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.643132227922931</v>
       </c>
       <c r="J8">
-        <v>6.14869945112142</v>
+        <v>11.33030028235065</v>
       </c>
       <c r="K8">
-        <v>13.50021077343536</v>
+        <v>16.94357638501885</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.282063185778049</v>
       </c>
       <c r="M8">
-        <v>12.66557252163147</v>
+        <v>11.17413868766709</v>
       </c>
       <c r="N8">
-        <v>17.4050690620532</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.70049478121677</v>
+      </c>
+      <c r="P8">
+        <v>13.65264658112355</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.45663265349244</v>
+        <v>14.2588063042716</v>
       </c>
       <c r="C9">
-        <v>9.63482967383125</v>
+        <v>8.920712950093936</v>
       </c>
       <c r="D9">
-        <v>2.88018230966746</v>
+        <v>6.413404873753394</v>
       </c>
       <c r="E9">
-        <v>7.371247408879424</v>
+        <v>9.881027566533316</v>
       </c>
       <c r="F9">
-        <v>41.35071240441562</v>
+        <v>28.00374002039291</v>
       </c>
       <c r="G9">
-        <v>2.12870552783338</v>
+        <v>34.07520145501585</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.068794011093436</v>
       </c>
       <c r="J9">
-        <v>6.170641565532868</v>
+        <v>11.44239384996991</v>
       </c>
       <c r="K9">
-        <v>15.12349563392475</v>
+        <v>17.04469242084476</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.583396050454632</v>
       </c>
       <c r="M9">
-        <v>13.71599138055907</v>
+        <v>12.84929639181363</v>
       </c>
       <c r="N9">
-        <v>17.18927163263509</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.93754582226554</v>
+      </c>
+      <c r="P9">
+        <v>13.24900133605778</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.89035725810287</v>
+        <v>15.5144668504947</v>
       </c>
       <c r="C10">
-        <v>10.52051869834808</v>
+        <v>9.684900328933125</v>
       </c>
       <c r="D10">
-        <v>3.070402293248046</v>
+        <v>6.778124951498245</v>
       </c>
       <c r="E10">
-        <v>7.643837169955639</v>
+        <v>10.29366730054436</v>
       </c>
       <c r="F10">
-        <v>43.11409025706175</v>
+        <v>28.81785954011182</v>
       </c>
       <c r="G10">
-        <v>2.113810466579007</v>
+        <v>35.18910612963025</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>1.705837681856443</v>
       </c>
       <c r="J10">
-        <v>6.20026169895419</v>
+        <v>11.50770706740464</v>
       </c>
       <c r="K10">
-        <v>16.26886498585035</v>
+        <v>17.09246045921186</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.723974412625672</v>
       </c>
       <c r="M10">
-        <v>14.48707861374749</v>
+        <v>13.93222969493439</v>
       </c>
       <c r="N10">
-        <v>17.0594448946782</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.6712174991908</v>
+      </c>
+      <c r="P10">
+        <v>12.9472927328216</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.52453168832271</v>
+        <v>15.89920959997528</v>
       </c>
       <c r="C11">
-        <v>10.92773348804929</v>
+        <v>9.645364472910501</v>
       </c>
       <c r="D11">
-        <v>3.15313148113884</v>
+        <v>6.356599990300357</v>
       </c>
       <c r="E11">
-        <v>7.770181512008041</v>
+        <v>9.092919912227497</v>
       </c>
       <c r="F11">
-        <v>43.93361347793764</v>
+        <v>27.64251942324882</v>
       </c>
       <c r="G11">
-        <v>2.107120263214298</v>
+        <v>33.76247383344374</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.731982302965752</v>
       </c>
       <c r="J11">
-        <v>6.216921981578518</v>
+        <v>11.17657619552792</v>
       </c>
       <c r="K11">
-        <v>16.81038059452875</v>
+        <v>16.49670384510944</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.251939672787346</v>
       </c>
       <c r="M11">
-        <v>14.83688042177073</v>
+        <v>14.17863231304872</v>
       </c>
       <c r="N11">
-        <v>17.00738463720859</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.02461116951034</v>
+      </c>
+      <c r="P11">
+        <v>12.69869214999932</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.7763519861081</v>
+        <v>15.96815768452405</v>
       </c>
       <c r="C12">
-        <v>11.07964056930042</v>
+        <v>9.4547583568052</v>
       </c>
       <c r="D12">
-        <v>3.183910534059779</v>
+        <v>5.926031865282665</v>
       </c>
       <c r="E12">
-        <v>7.818349220271161</v>
+        <v>8.100843483096959</v>
       </c>
       <c r="F12">
-        <v>44.24645923136146</v>
+        <v>26.45863727318668</v>
       </c>
       <c r="G12">
-        <v>2.104596563311227</v>
+        <v>32.29127383298876</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.135849055666634</v>
       </c>
       <c r="J12">
-        <v>6.223711469567612</v>
+        <v>10.87760240351869</v>
       </c>
       <c r="K12">
-        <v>17.04306244048163</v>
+        <v>15.9762138208181</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.931148426733643</v>
       </c>
       <c r="M12">
-        <v>14.96915496710522</v>
+        <v>14.16576582583292</v>
       </c>
       <c r="N12">
-        <v>16.98874997129055</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.31778968939843</v>
+      </c>
+      <c r="P12">
+        <v>12.56873119956486</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.71925416011909</v>
+        <v>15.80086891752199</v>
       </c>
       <c r="C13">
-        <v>11.04702543527314</v>
+        <v>9.130037359037876</v>
       </c>
       <c r="D13">
-        <v>3.177306125936768</v>
+        <v>5.453707794160026</v>
       </c>
       <c r="E13">
-        <v>7.807961199922199</v>
+        <v>7.238128725511685</v>
       </c>
       <c r="F13">
-        <v>44.17897006196677</v>
+        <v>25.18139762352524</v>
       </c>
       <c r="G13">
-        <v>2.105139698145445</v>
+        <v>30.67069650900394</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.575510090250988</v>
       </c>
       <c r="J13">
-        <v>6.222227482446875</v>
+        <v>10.58424596259083</v>
       </c>
       <c r="K13">
-        <v>16.99311795762906</v>
+        <v>15.48106694052762</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.720549697165041</v>
       </c>
       <c r="M13">
-        <v>14.94067619404611</v>
+        <v>13.95251947040996</v>
       </c>
       <c r="N13">
-        <v>16.99271402144564</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.50612939112488</v>
+      </c>
+      <c r="P13">
+        <v>12.52102110138432</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.54412683479755</v>
+        <v>15.5747102342736</v>
       </c>
       <c r="C14">
-        <v>10.94027651249113</v>
+        <v>8.837395378504963</v>
       </c>
       <c r="D14">
-        <v>3.155674692519225</v>
+        <v>5.102013861396653</v>
       </c>
       <c r="E14">
-        <v>7.774137867042629</v>
+        <v>6.744936178216518</v>
       </c>
       <c r="F14">
-        <v>43.95930097434764</v>
+        <v>24.24314022179129</v>
       </c>
       <c r="G14">
-        <v>2.106912457503431</v>
+        <v>29.46243191512847</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.593448098825386</v>
       </c>
       <c r="J14">
-        <v>6.217470790626249</v>
+        <v>10.38262504395915</v>
       </c>
       <c r="K14">
-        <v>16.82959923669219</v>
+        <v>15.14892413311218</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.64622685481774</v>
       </c>
       <c r="M14">
-        <v>14.84776670058412</v>
+        <v>13.70990516160517</v>
       </c>
       <c r="N14">
-        <v>17.00582947121892</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.88357312613783</v>
+      </c>
+      <c r="P14">
+        <v>12.52640321132408</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.44155311446479</v>
+        <v>15.46812924266477</v>
       </c>
       <c r="C15">
-        <v>10.87459315875198</v>
+        <v>8.736085810679963</v>
       </c>
       <c r="D15">
-        <v>3.14235333789378</v>
+        <v>5.006526532521858</v>
       </c>
       <c r="E15">
-        <v>7.753461961158107</v>
+        <v>6.639042032277481</v>
       </c>
       <c r="F15">
-        <v>43.82507521943423</v>
+        <v>23.9975613319067</v>
       </c>
       <c r="G15">
-        <v>2.107999510600401</v>
+        <v>29.13995179987575</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.831077189422856</v>
       </c>
       <c r="J15">
-        <v>6.214620461252643</v>
+        <v>10.33582077556836</v>
       </c>
       <c r="K15">
-        <v>16.72894598184538</v>
+        <v>15.07515564508146</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.636128971137812</v>
       </c>
       <c r="M15">
-        <v>14.79083138814314</v>
+        <v>13.60689319161155</v>
       </c>
       <c r="N15">
-        <v>17.01400594267734</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.70919196761623</v>
+      </c>
+      <c r="P15">
+        <v>12.54274966764136</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.84854805545142</v>
+        <v>14.97690149313171</v>
       </c>
       <c r="C16">
-        <v>10.49358044570652</v>
+        <v>8.460948772374342</v>
       </c>
       <c r="D16">
-        <v>3.064919019008052</v>
+        <v>4.923161837283329</v>
       </c>
       <c r="E16">
-        <v>7.635626198995513</v>
+        <v>6.598763434169444</v>
       </c>
       <c r="F16">
-        <v>43.06088218578046</v>
+        <v>23.87556717956329</v>
       </c>
       <c r="G16">
-        <v>2.114249195596666</v>
+        <v>28.93439954100443</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.64194600109334</v>
       </c>
       <c r="J16">
-        <v>6.199238905383264</v>
+        <v>10.36507230991043</v>
       </c>
       <c r="K16">
-        <v>16.23531190606123</v>
+        <v>15.15242422994858</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.610580381447473</v>
       </c>
       <c r="M16">
-        <v>14.46419416002781</v>
+        <v>13.19099457257216</v>
       </c>
       <c r="N16">
-        <v>17.06299404493865</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.52341653365219</v>
+      </c>
+      <c r="P16">
+        <v>12.67629742802222</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.48012257812679</v>
+        <v>14.71813397205113</v>
       </c>
       <c r="C17">
-        <v>10.25566516473102</v>
+        <v>8.409858489833013</v>
       </c>
       <c r="D17">
-        <v>3.016439610450241</v>
+        <v>5.050952443687017</v>
       </c>
       <c r="E17">
-        <v>7.563927154134592</v>
+        <v>6.808329574880485</v>
       </c>
       <c r="F17">
-        <v>42.59651939907272</v>
+        <v>24.28937184856582</v>
       </c>
       <c r="G17">
-        <v>2.118103351789147</v>
+        <v>29.43543369707045</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.928295402286534</v>
       </c>
       <c r="J17">
-        <v>6.190634327964214</v>
+        <v>10.49530140256048</v>
       </c>
       <c r="K17">
-        <v>15.9400159597462</v>
+        <v>15.38845887671885</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.618102634852797</v>
       </c>
       <c r="M17">
-        <v>14.26352401596594</v>
+        <v>13.00066139141197</v>
       </c>
       <c r="N17">
-        <v>17.09488863217976</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.72191148586801</v>
+      </c>
+      <c r="P17">
+        <v>12.77601655813063</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.26651478138832</v>
+        <v>14.63763236967745</v>
       </c>
       <c r="C18">
-        <v>10.11726362599835</v>
+        <v>8.551003606198137</v>
       </c>
       <c r="D18">
-        <v>2.988197572180489</v>
+        <v>5.381609091998977</v>
       </c>
       <c r="E18">
-        <v>7.522908740017497</v>
+        <v>7.384259439473919</v>
       </c>
       <c r="F18">
-        <v>42.33106092182911</v>
+        <v>25.20799373388921</v>
       </c>
       <c r="G18">
-        <v>2.120328389561459</v>
+        <v>30.59121482351937</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.710671747642493</v>
       </c>
       <c r="J18">
-        <v>6.18598364925387</v>
+        <v>10.72588643836369</v>
       </c>
       <c r="K18">
-        <v>15.76912671977188</v>
+        <v>15.78718931313684</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.726135058185662</v>
       </c>
       <c r="M18">
-        <v>14.14801431650017</v>
+        <v>12.98958783780936</v>
       </c>
       <c r="N18">
-        <v>17.11388746459728</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.27626652133582</v>
+      </c>
+      <c r="P18">
+        <v>12.866391946186</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.19389983949145</v>
+        <v>14.70818632115517</v>
       </c>
       <c r="C19">
-        <v>10.07013332667206</v>
+        <v>8.834651095080908</v>
       </c>
       <c r="D19">
-        <v>2.978573912157765</v>
+        <v>5.854351114523467</v>
       </c>
       <c r="E19">
-        <v>7.509059021883171</v>
+        <v>8.349682191203895</v>
       </c>
       <c r="F19">
-        <v>42.24146140786743</v>
+        <v>26.46370947009706</v>
       </c>
       <c r="G19">
-        <v>2.121083236959691</v>
+        <v>32.17853608911341</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.281482026656905</v>
       </c>
       <c r="J19">
-        <v>6.184459607760892</v>
+        <v>11.02120152729237</v>
       </c>
       <c r="K19">
-        <v>15.71108887918235</v>
+        <v>16.29166385565383</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.004235826312619</v>
       </c>
       <c r="M19">
-        <v>14.10889112376734</v>
+        <v>13.12461024912128</v>
       </c>
       <c r="N19">
-        <v>17.12043035659878</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.07128530575436</v>
+      </c>
+      <c r="P19">
+        <v>12.95420798144294</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.5195181320087</v>
+        <v>15.19340991954118</v>
       </c>
       <c r="C20">
-        <v>10.28115247674787</v>
+        <v>9.487868522814948</v>
       </c>
       <c r="D20">
-        <v>3.021637394033526</v>
+        <v>6.681272258719343</v>
       </c>
       <c r="E20">
-        <v>7.571536875728153</v>
+        <v>10.17961341531771</v>
       </c>
       <c r="F20">
-        <v>42.64578283757493</v>
+        <v>28.59401819823642</v>
       </c>
       <c r="G20">
-        <v>2.117692236480054</v>
+        <v>34.88253663750687</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>1.798939541471946</v>
       </c>
       <c r="J20">
-        <v>6.191519253934519</v>
+        <v>11.486956329952</v>
       </c>
       <c r="K20">
-        <v>15.97155896196179</v>
+        <v>17.07351042441744</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.684411264944233</v>
       </c>
       <c r="M20">
-        <v>14.28489537367629</v>
+        <v>13.65462886044244</v>
       </c>
       <c r="N20">
-        <v>17.09142521827755</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.47719809719808</v>
+      </c>
+      <c r="P20">
+        <v>13.02522132261903</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.59322191233133</v>
+        <v>16.14041526471855</v>
       </c>
       <c r="C21">
-        <v>10.97169290631805</v>
+        <v>10.11359446936599</v>
       </c>
       <c r="D21">
-        <v>3.162043265144365</v>
+        <v>7.055252595571554</v>
       </c>
       <c r="E21">
-        <v>7.784063892817068</v>
+        <v>10.7439681262304</v>
       </c>
       <c r="F21">
-        <v>44.02375470002585</v>
+        <v>29.50411043712144</v>
       </c>
       <c r="G21">
-        <v>2.106391512754795</v>
+        <v>36.1010120089497</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>1.644979142730404</v>
       </c>
       <c r="J21">
-        <v>6.218854716132414</v>
+        <v>11.61076473118472</v>
       </c>
       <c r="K21">
-        <v>16.87773122272904</v>
+        <v>17.23788463056347</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.897380058504647</v>
       </c>
       <c r="M21">
-        <v>14.8750618577733</v>
+        <v>14.48784599100497</v>
       </c>
       <c r="N21">
-        <v>17.00194722765492</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>14.19409426053664</v>
+      </c>
+      <c r="P21">
+        <v>12.81903305148542</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.35389652255815</v>
+        <v>16.72431771354265</v>
       </c>
       <c r="C22">
-        <v>11.40966062314875</v>
+        <v>10.48423213653922</v>
       </c>
       <c r="D22">
-        <v>3.250608928552261</v>
+        <v>7.257699668711141</v>
       </c>
       <c r="E22">
-        <v>7.924847375934438</v>
+        <v>11.01784452952133</v>
       </c>
       <c r="F22">
-        <v>44.93900233850267</v>
+        <v>30.01061240234538</v>
       </c>
       <c r="G22">
-        <v>2.099061188162267</v>
+        <v>36.79014330983892</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>1.832121667238075</v>
       </c>
       <c r="J22">
-        <v>6.2395329281958</v>
+        <v>11.6752191538697</v>
       </c>
       <c r="K22">
-        <v>17.54802469344214</v>
+        <v>17.31784203254477</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.998606558014347</v>
       </c>
       <c r="M22">
-        <v>15.25966655571446</v>
+        <v>14.99733166125514</v>
       </c>
       <c r="N22">
-        <v>16.94979985999967</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.5920831052309</v>
+      </c>
+      <c r="P22">
+        <v>12.67823844205045</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.94695030388275</v>
+        <v>16.4150007293618</v>
       </c>
       <c r="C23">
-        <v>11.17710104731615</v>
+        <v>10.28786067884351</v>
       </c>
       <c r="D23">
-        <v>3.203632457022675</v>
+        <v>7.150284351146745</v>
       </c>
       <c r="E23">
-        <v>7.849539264372857</v>
+        <v>10.87242894826771</v>
       </c>
       <c r="F23">
-        <v>44.44916168749128</v>
+        <v>29.73997188266114</v>
       </c>
       <c r="G23">
-        <v>2.102969377523904</v>
+        <v>36.42163016066689</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>1.732564282634622</v>
       </c>
       <c r="J23">
-        <v>6.228231352459138</v>
+        <v>11.64034646246351</v>
       </c>
       <c r="K23">
-        <v>17.19226315350053</v>
+        <v>17.27427797310384</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.944767014928876</v>
       </c>
       <c r="M23">
-        <v>15.05450766268099</v>
+        <v>14.72738200158615</v>
       </c>
       <c r="N23">
-        <v>16.97702622720025</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>14.38083020173477</v>
+      </c>
+      <c r="P23">
+        <v>12.7532577285413</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.50171299232054</v>
+        <v>15.19221826207314</v>
       </c>
       <c r="C24">
-        <v>10.26963471734273</v>
+        <v>9.512200192766752</v>
       </c>
       <c r="D24">
-        <v>3.019288630187683</v>
+        <v>6.729625569974947</v>
       </c>
       <c r="E24">
-        <v>7.568095889369088</v>
+        <v>10.30515358293273</v>
       </c>
       <c r="F24">
-        <v>42.62350613472847</v>
+        <v>28.72222621701163</v>
       </c>
       <c r="G24">
-        <v>2.117878072763833</v>
+        <v>35.04209646281222</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>1.778160683025488</v>
       </c>
       <c r="J24">
-        <v>6.191118257963085</v>
+        <v>11.51847952561594</v>
       </c>
       <c r="K24">
-        <v>15.95730185551025</v>
+        <v>17.12843562686675</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.736763935301418</v>
       </c>
       <c r="M24">
-        <v>14.27523382049302</v>
+        <v>13.66147028306548</v>
       </c>
       <c r="N24">
-        <v>17.09298897049284</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.55551502522064</v>
+      </c>
+      <c r="P24">
+        <v>13.04023440167916</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.91291699291221</v>
+        <v>13.76202099264891</v>
       </c>
       <c r="C25">
-        <v>9.314968724250027</v>
+        <v>8.606101763188768</v>
       </c>
       <c r="D25">
-        <v>2.806784130793859</v>
+        <v>6.24710133940031</v>
       </c>
       <c r="E25">
-        <v>7.273045501994437</v>
+        <v>9.658768289270697</v>
       </c>
       <c r="F25">
-        <v>40.7167850283834</v>
+        <v>27.64289248198934</v>
       </c>
       <c r="G25">
-        <v>2.134282533334957</v>
+        <v>33.59224393418044</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.219992051007546</v>
       </c>
       <c r="J25">
-        <v>6.162417004679237</v>
+        <v>11.40778025698726</v>
       </c>
       <c r="K25">
-        <v>14.69225777243588</v>
+        <v>17.00956036987284</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.503768042742716</v>
       </c>
       <c r="M25">
-        <v>13.43159635760631</v>
+        <v>12.41763518346441</v>
       </c>
       <c r="N25">
-        <v>17.24284470387126</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>12.61354506977497</v>
+      </c>
+      <c r="P25">
+        <v>13.35648045957906</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.61152110080095</v>
+        <v>12.29361951443766</v>
       </c>
       <c r="C2">
-        <v>7.877950091592247</v>
+        <v>8.528982322279809</v>
       </c>
       <c r="D2">
-        <v>5.868128567518236</v>
+        <v>6.11056764866522</v>
       </c>
       <c r="E2">
-        <v>9.154294012250656</v>
+        <v>9.305997110412115</v>
       </c>
       <c r="F2">
-        <v>26.86712410518142</v>
+        <v>25.94499559712903</v>
       </c>
       <c r="G2">
-        <v>32.56137925183911</v>
+        <v>30.58674670291374</v>
       </c>
       <c r="H2">
-        <v>2.560981349111661</v>
+        <v>2.49112174810613</v>
       </c>
       <c r="J2">
-        <v>11.34301684139341</v>
+        <v>11.20679093269645</v>
       </c>
       <c r="K2">
-        <v>16.95254709955774</v>
+        <v>16.03426612569633</v>
       </c>
       <c r="L2">
-        <v>6.324932429687188</v>
+        <v>13.35807777949763</v>
       </c>
       <c r="M2">
-        <v>11.41979703175798</v>
+        <v>10.41902537814304</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.341302412675972</v>
       </c>
       <c r="O2">
-        <v>11.87824943765335</v>
+        <v>11.39073821712916</v>
       </c>
       <c r="P2">
-        <v>13.59571672302704</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.89145857437053</v>
+      </c>
+      <c r="R2">
+        <v>13.34127495029426</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.7701663179963</v>
+        <v>11.52216268436346</v>
       </c>
       <c r="C3">
-        <v>7.345801130806477</v>
+        <v>7.953085569644146</v>
       </c>
       <c r="D3">
-        <v>5.597287638477018</v>
+        <v>5.828498433335287</v>
       </c>
       <c r="E3">
-        <v>8.795417024265825</v>
+        <v>8.956160896819762</v>
       </c>
       <c r="F3">
-        <v>26.35484617885942</v>
+        <v>25.50398609023825</v>
       </c>
       <c r="G3">
-        <v>31.88764532947668</v>
+        <v>30.0898001980347</v>
       </c>
       <c r="H3">
-        <v>2.802340964400504</v>
+        <v>2.715891569015943</v>
       </c>
       <c r="J3">
-        <v>11.30900196224625</v>
+        <v>11.1492715355111</v>
       </c>
       <c r="K3">
-        <v>16.93164839160731</v>
+        <v>16.0572112904752</v>
       </c>
       <c r="L3">
-        <v>6.199299506671034</v>
+        <v>13.46676005777711</v>
       </c>
       <c r="M3">
-        <v>10.69198307363085</v>
+        <v>10.35457646236489</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.226069165799803</v>
       </c>
       <c r="O3">
-        <v>11.35581974200215</v>
+        <v>10.67985417087921</v>
       </c>
       <c r="P3">
-        <v>13.76213108032809</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.36933130012019</v>
+      </c>
+      <c r="R3">
+        <v>13.5022837283387</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.22289060647754</v>
+        <v>11.02035391204829</v>
       </c>
       <c r="C4">
-        <v>6.999782766346121</v>
+        <v>7.581506674047748</v>
       </c>
       <c r="D4">
-        <v>5.424424819730499</v>
+        <v>5.648972895947364</v>
       </c>
       <c r="E4">
-        <v>8.56704308749266</v>
+        <v>8.734000598363584</v>
       </c>
       <c r="F4">
-        <v>26.04751176801756</v>
+        <v>25.23905899161924</v>
       </c>
       <c r="G4">
-        <v>31.48691866862121</v>
+        <v>29.80012313098548</v>
       </c>
       <c r="H4">
-        <v>2.95575508277392</v>
+        <v>2.858869871865467</v>
       </c>
       <c r="J4">
-        <v>11.29279528011461</v>
+        <v>11.11586847328006</v>
       </c>
       <c r="K4">
-        <v>16.92713378824874</v>
+        <v>16.07747080102675</v>
       </c>
       <c r="L4">
-        <v>6.120020120192985</v>
+        <v>13.5352925415867</v>
       </c>
       <c r="M4">
-        <v>10.21958319642184</v>
+        <v>10.33750449229893</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.153405247049887</v>
       </c>
       <c r="O4">
-        <v>11.023975586808</v>
+        <v>10.21840963390332</v>
       </c>
       <c r="P4">
-        <v>13.86651563139051</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.03748150524259</v>
+      </c>
+      <c r="R4">
+        <v>13.60317207573961</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.99211886695019</v>
+        <v>10.80877033263342</v>
       </c>
       <c r="C5">
-        <v>6.853901639582088</v>
+        <v>7.425638353219902</v>
       </c>
       <c r="D5">
-        <v>5.352393682327263</v>
+        <v>5.574302745333663</v>
       </c>
       <c r="E5">
-        <v>8.472026295770711</v>
+        <v>8.641691515640083</v>
       </c>
       <c r="F5">
-        <v>25.92416781683464</v>
+        <v>25.13262478274611</v>
       </c>
       <c r="G5">
-        <v>31.32697372041412</v>
+        <v>29.68594693667729</v>
       </c>
       <c r="H5">
-        <v>3.019606194291584</v>
+        <v>2.918402380918491</v>
       </c>
       <c r="J5">
-        <v>11.28733861191298</v>
+        <v>11.10273048677391</v>
       </c>
       <c r="K5">
-        <v>16.92732129298073</v>
+        <v>16.08722437665384</v>
       </c>
       <c r="L5">
-        <v>6.087183399284945</v>
+        <v>13.56367713756854</v>
       </c>
       <c r="M5">
-        <v>10.02065573652706</v>
+        <v>10.33616081322089</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.123321970509984</v>
       </c>
       <c r="O5">
-        <v>10.88610954444643</v>
+        <v>10.02409809598884</v>
       </c>
       <c r="P5">
-        <v>13.909620692995</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.8995670555896</v>
+      </c>
+      <c r="R5">
+        <v>13.64480893538328</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.95333009740093</v>
+        <v>10.77320820815118</v>
       </c>
       <c r="C6">
-        <v>6.829382875704898</v>
+        <v>7.399490567635837</v>
       </c>
       <c r="D6">
-        <v>5.340339091641319</v>
+        <v>5.561815107703102</v>
       </c>
       <c r="E6">
-        <v>8.456132979809739</v>
+        <v>8.62625868075809</v>
       </c>
       <c r="F6">
-        <v>25.90380366342426</v>
+        <v>25.1150451174148</v>
       </c>
       <c r="G6">
-        <v>31.30062029380734</v>
+        <v>29.66722108823077</v>
       </c>
       <c r="H6">
-        <v>3.030289782336717</v>
+        <v>2.928364797516195</v>
       </c>
       <c r="J6">
-        <v>11.28650100335802</v>
+        <v>11.1005773473574</v>
       </c>
       <c r="K6">
-        <v>16.92747298872213</v>
+        <v>16.08893284629163</v>
       </c>
       <c r="L6">
-        <v>6.081699156899527</v>
+        <v>13.5684181051068</v>
       </c>
       <c r="M6">
-        <v>9.987236237816148</v>
+        <v>10.33627477423775</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.118298402319781</v>
       </c>
       <c r="O6">
-        <v>10.86306245276905</v>
+        <v>9.991454555262187</v>
       </c>
       <c r="P6">
-        <v>13.91681290236713</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.87650920111453</v>
+      </c>
+      <c r="R6">
+        <v>13.65175475423637</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.21980977631068</v>
+        <v>11.01352634663454</v>
       </c>
       <c r="C7">
-        <v>6.997835142083854</v>
+        <v>7.568090191720615</v>
       </c>
       <c r="D7">
-        <v>5.423459722179183</v>
+        <v>5.652803007396226</v>
       </c>
       <c r="E7">
-        <v>8.565769471151238</v>
+        <v>8.73463778343131</v>
       </c>
       <c r="F7">
-        <v>26.04584051604181</v>
+        <v>25.21979545473802</v>
       </c>
       <c r="G7">
-        <v>31.48474788917449</v>
+        <v>29.86939337229493</v>
       </c>
       <c r="H7">
-        <v>2.956610773598582</v>
+        <v>2.860355356226683</v>
       </c>
       <c r="J7">
-        <v>11.2927170809865</v>
+        <v>11.07306511615116</v>
       </c>
       <c r="K7">
-        <v>16.92712819367793</v>
+        <v>16.06868723955347</v>
       </c>
       <c r="L7">
-        <v>6.119579405733509</v>
+        <v>13.52777867402994</v>
       </c>
       <c r="M7">
-        <v>10.21692638754237</v>
+        <v>10.33185497792212</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.152523504095002</v>
       </c>
       <c r="O7">
-        <v>11.02212674369763</v>
+        <v>10.20977848494482</v>
       </c>
       <c r="P7">
-        <v>13.8670946466693</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.03345960140313</v>
+      </c>
+      <c r="R7">
+        <v>13.6019598764175</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.32776656315917</v>
+        <v>12.02116768736015</v>
       </c>
       <c r="C8">
-        <v>7.698448657153572</v>
+        <v>8.299328771567234</v>
       </c>
       <c r="D8">
-        <v>5.776139715458204</v>
+        <v>6.029934451153339</v>
       </c>
       <c r="E8">
-        <v>9.032253989438226</v>
+        <v>9.193015550451262</v>
       </c>
       <c r="F8">
-        <v>26.68904695710381</v>
+        <v>25.73404984049446</v>
       </c>
       <c r="G8">
-        <v>32.32644945294182</v>
+        <v>30.64369345274584</v>
       </c>
       <c r="H8">
-        <v>2.643132227922931</v>
+        <v>2.569731363052601</v>
       </c>
       <c r="J8">
-        <v>11.33030028235065</v>
+        <v>11.04749882262031</v>
       </c>
       <c r="K8">
-        <v>16.94357638501885</v>
+        <v>16.01165112871284</v>
       </c>
       <c r="L8">
-        <v>6.282063185778049</v>
+        <v>13.3709367637862</v>
       </c>
       <c r="M8">
-        <v>11.17413868766709</v>
+        <v>10.37168860257241</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.300493547148108</v>
       </c>
       <c r="O8">
-        <v>11.70049478121677</v>
+        <v>11.13223228373092</v>
       </c>
       <c r="P8">
-        <v>13.65264658112355</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.70698735199958</v>
+      </c>
+      <c r="R8">
+        <v>13.39088984092648</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.2588063042716</v>
+        <v>13.78963647877873</v>
       </c>
       <c r="C9">
-        <v>8.920712950093936</v>
+        <v>9.649883668932858</v>
       </c>
       <c r="D9">
-        <v>6.413404873753394</v>
+        <v>6.698395162962534</v>
       </c>
       <c r="E9">
-        <v>9.881027566533316</v>
+        <v>10.0237716164947</v>
       </c>
       <c r="F9">
-        <v>28.00374002039291</v>
+        <v>26.85225456854642</v>
       </c>
       <c r="G9">
-        <v>34.07520145501585</v>
+        <v>32.02187777737642</v>
       </c>
       <c r="H9">
-        <v>2.068794011093436</v>
+        <v>2.035891882445943</v>
       </c>
       <c r="J9">
-        <v>11.44239384996991</v>
+        <v>11.16651964681986</v>
       </c>
       <c r="K9">
-        <v>17.04469242084476</v>
+        <v>15.9837331089042</v>
       </c>
       <c r="L9">
-        <v>6.583396050454632</v>
+        <v>13.10630526222997</v>
       </c>
       <c r="M9">
-        <v>12.84929639181363</v>
+        <v>10.64931784912246</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.576929378966207</v>
       </c>
       <c r="O9">
-        <v>12.93754582226554</v>
+        <v>12.76539603958381</v>
       </c>
       <c r="P9">
-        <v>13.24900133605778</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.94096475172529</v>
+      </c>
+      <c r="R9">
+        <v>12.99884654879606</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.5144668504947</v>
+        <v>14.92493474726474</v>
       </c>
       <c r="C10">
-        <v>9.684900328933125</v>
+        <v>10.48447733332245</v>
       </c>
       <c r="D10">
-        <v>6.778124951498245</v>
+        <v>7.106429710811388</v>
       </c>
       <c r="E10">
-        <v>10.29366730054436</v>
+        <v>10.43391496226757</v>
       </c>
       <c r="F10">
-        <v>28.81785954011182</v>
+        <v>27.43716977917707</v>
       </c>
       <c r="G10">
-        <v>35.18910612963025</v>
+        <v>33.28321202871239</v>
       </c>
       <c r="H10">
-        <v>1.705837681856443</v>
+        <v>1.704266021342768</v>
       </c>
       <c r="J10">
-        <v>11.50770706740464</v>
+        <v>10.99499278950645</v>
       </c>
       <c r="K10">
-        <v>17.09246045921186</v>
+        <v>15.88763385470452</v>
       </c>
       <c r="L10">
-        <v>6.723974412625672</v>
+        <v>12.84121900566337</v>
       </c>
       <c r="M10">
-        <v>13.93222969493439</v>
+        <v>10.86997458039189</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.699114725476393</v>
       </c>
       <c r="O10">
-        <v>13.6712174991908</v>
+        <v>13.79360727534143</v>
       </c>
       <c r="P10">
-        <v>12.9472927328216</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.66090696643981</v>
+      </c>
+      <c r="R10">
+        <v>12.70179944797223</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.89920959997528</v>
+        <v>15.27728421961282</v>
       </c>
       <c r="C11">
-        <v>9.645364472910501</v>
+        <v>10.31440529464312</v>
       </c>
       <c r="D11">
-        <v>6.356599990300357</v>
+        <v>6.718530769045829</v>
       </c>
       <c r="E11">
-        <v>9.092919912227497</v>
+        <v>9.230665050328701</v>
       </c>
       <c r="F11">
-        <v>27.64251942324882</v>
+        <v>26.1095426359582</v>
       </c>
       <c r="G11">
-        <v>33.76247383344374</v>
+        <v>32.74265229658251</v>
       </c>
       <c r="H11">
-        <v>2.731982302965752</v>
+        <v>2.739236809120764</v>
       </c>
       <c r="J11">
-        <v>11.17657619552792</v>
+        <v>10.24752191683192</v>
       </c>
       <c r="K11">
-        <v>16.49670384510944</v>
+        <v>15.24646701963354</v>
       </c>
       <c r="L11">
-        <v>6.251939672787346</v>
+        <v>12.30297891063268</v>
       </c>
       <c r="M11">
-        <v>14.17863231304872</v>
+        <v>10.48383647165</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.224084180719673</v>
       </c>
       <c r="O11">
-        <v>13.02461116951034</v>
+        <v>13.97995611718343</v>
       </c>
       <c r="P11">
-        <v>12.69869214999932</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.99140110665309</v>
+      </c>
+      <c r="R11">
+        <v>12.49335007221016</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.96815768452405</v>
+        <v>15.35452162777297</v>
       </c>
       <c r="C12">
-        <v>9.4547583568052</v>
+        <v>10.02826803981077</v>
       </c>
       <c r="D12">
-        <v>5.926031865282665</v>
+        <v>6.290703674158908</v>
       </c>
       <c r="E12">
-        <v>8.100843483096959</v>
+        <v>8.222784832257849</v>
       </c>
       <c r="F12">
-        <v>26.45863727318668</v>
+        <v>24.90891012971374</v>
       </c>
       <c r="G12">
-        <v>32.29127383298876</v>
+        <v>31.74886109412012</v>
       </c>
       <c r="H12">
-        <v>4.135849055666634</v>
+        <v>4.142034473463999</v>
       </c>
       <c r="J12">
-        <v>10.87760240351869</v>
+        <v>9.817693573599835</v>
       </c>
       <c r="K12">
-        <v>15.9762138208181</v>
+        <v>14.75538884444378</v>
       </c>
       <c r="L12">
-        <v>5.931148426733643</v>
+        <v>11.93728470156584</v>
       </c>
       <c r="M12">
-        <v>14.16576582583292</v>
+        <v>10.12174340171547</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.906591988108626</v>
       </c>
       <c r="O12">
-        <v>12.31778968939843</v>
+        <v>13.94392075846511</v>
       </c>
       <c r="P12">
-        <v>12.56873119956486</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.27489332655884</v>
+      </c>
+      <c r="R12">
+        <v>12.40445926343961</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.80086891752199</v>
+        <v>15.2353765886827</v>
       </c>
       <c r="C13">
-        <v>9.130037359037876</v>
+        <v>9.646951373336567</v>
       </c>
       <c r="D13">
-        <v>5.453707794160026</v>
+        <v>5.788668517010506</v>
       </c>
       <c r="E13">
-        <v>7.238128725511685</v>
+        <v>7.332463332843218</v>
       </c>
       <c r="F13">
-        <v>25.18139762352524</v>
+        <v>23.75564725809436</v>
       </c>
       <c r="G13">
-        <v>30.67069650900394</v>
+        <v>30.15530315201405</v>
       </c>
       <c r="H13">
-        <v>5.575510090250988</v>
+        <v>5.578475856136901</v>
       </c>
       <c r="J13">
-        <v>10.58424596259083</v>
+        <v>9.650765036306771</v>
       </c>
       <c r="K13">
-        <v>15.48106694052762</v>
+        <v>14.36583316280625</v>
       </c>
       <c r="L13">
-        <v>5.720549697165041</v>
+        <v>11.68111724541113</v>
       </c>
       <c r="M13">
-        <v>13.95251947040996</v>
+        <v>9.774535467213319</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.70486787037907</v>
       </c>
       <c r="O13">
-        <v>11.50612939112488</v>
+        <v>13.74546581005178</v>
       </c>
       <c r="P13">
-        <v>12.52102110138432</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.46703095490579</v>
+      </c>
+      <c r="R13">
+        <v>12.39500528460835</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.5747102342736</v>
+        <v>15.06132565062734</v>
       </c>
       <c r="C14">
-        <v>8.837395378504963</v>
+        <v>9.330279100471143</v>
       </c>
       <c r="D14">
-        <v>5.102013861396653</v>
+        <v>5.402472056339974</v>
       </c>
       <c r="E14">
-        <v>6.744936178216518</v>
+        <v>6.817378251947065</v>
       </c>
       <c r="F14">
-        <v>24.24314022179129</v>
+        <v>22.96380260654283</v>
       </c>
       <c r="G14">
-        <v>29.46243191512847</v>
+        <v>28.77483840338953</v>
       </c>
       <c r="H14">
-        <v>6.593448098825386</v>
+        <v>6.593839166173566</v>
       </c>
       <c r="J14">
-        <v>10.38262504395915</v>
+        <v>9.634884067370406</v>
       </c>
       <c r="K14">
-        <v>15.14892413311218</v>
+        <v>14.13759502349362</v>
       </c>
       <c r="L14">
-        <v>5.64622685481774</v>
+        <v>11.54589607231141</v>
       </c>
       <c r="M14">
-        <v>13.70990516160517</v>
+        <v>9.540500953948051</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.638845937227882</v>
       </c>
       <c r="O14">
-        <v>10.88357312613783</v>
+        <v>13.53006467119239</v>
       </c>
       <c r="P14">
-        <v>12.52640321132408</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.8527680773074</v>
+      </c>
+      <c r="R14">
+        <v>12.42203933723419</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.46812924266477</v>
+        <v>14.97560201996651</v>
       </c>
       <c r="C15">
-        <v>8.736085810679963</v>
+        <v>9.229710917676011</v>
       </c>
       <c r="D15">
-        <v>5.006526532521858</v>
+        <v>5.293179342157906</v>
       </c>
       <c r="E15">
-        <v>6.639042032277481</v>
+        <v>6.706875239002116</v>
       </c>
       <c r="F15">
-        <v>23.9975613319067</v>
+        <v>22.77871329129453</v>
       </c>
       <c r="G15">
-        <v>29.13995179987575</v>
+        <v>28.33127361883196</v>
       </c>
       <c r="H15">
-        <v>6.831077189422856</v>
+        <v>6.830425366431061</v>
       </c>
       <c r="J15">
-        <v>10.33582077556836</v>
+        <v>9.674121070332216</v>
       </c>
       <c r="K15">
-        <v>15.07515564508146</v>
+        <v>14.10145550300264</v>
       </c>
       <c r="L15">
-        <v>5.636128971137812</v>
+        <v>11.5316985217254</v>
       </c>
       <c r="M15">
-        <v>13.60689319161155</v>
+        <v>9.487843839901963</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.631670945836468</v>
       </c>
       <c r="O15">
-        <v>10.70919196761623</v>
+        <v>13.44103732203548</v>
       </c>
       <c r="P15">
-        <v>12.54274966764136</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.68278597964417</v>
+      </c>
+      <c r="R15">
+        <v>12.44153933826777</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.97690149313171</v>
+        <v>14.55546972432254</v>
       </c>
       <c r="C16">
-        <v>8.460948772374342</v>
+        <v>9.00686199608371</v>
       </c>
       <c r="D16">
-        <v>4.923161837283329</v>
+        <v>5.165926003332863</v>
       </c>
       <c r="E16">
-        <v>6.598763434169444</v>
+        <v>6.675248387220739</v>
       </c>
       <c r="F16">
-        <v>23.87556717956329</v>
+        <v>22.86401830233408</v>
       </c>
       <c r="G16">
-        <v>28.93439954100443</v>
+        <v>27.48739967280768</v>
       </c>
       <c r="H16">
-        <v>6.64194600109334</v>
+        <v>6.636039546830129</v>
       </c>
       <c r="J16">
-        <v>10.36507230991043</v>
+        <v>10.05772907181269</v>
       </c>
       <c r="K16">
-        <v>15.15242422994858</v>
+        <v>14.28258846266632</v>
       </c>
       <c r="L16">
-        <v>5.610580381447473</v>
+        <v>11.71069545080528</v>
       </c>
       <c r="M16">
-        <v>13.19099457257216</v>
+        <v>9.527311777742534</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.614818678453975</v>
       </c>
       <c r="O16">
-        <v>10.52341653365219</v>
+        <v>13.08733670329215</v>
       </c>
       <c r="P16">
-        <v>12.67629742802222</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.51688698567884</v>
+      </c>
+      <c r="R16">
+        <v>12.55975749708467</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.71813397205113</v>
+        <v>14.31819336025585</v>
       </c>
       <c r="C17">
-        <v>8.409858489833013</v>
+        <v>8.997262298238883</v>
       </c>
       <c r="D17">
-        <v>5.050952443687017</v>
+        <v>5.282812925675099</v>
       </c>
       <c r="E17">
-        <v>6.808329574880485</v>
+        <v>6.898748423563225</v>
       </c>
       <c r="F17">
-        <v>24.28937184856582</v>
+        <v>23.33814488618574</v>
       </c>
       <c r="G17">
-        <v>29.43543369707045</v>
+        <v>27.68616830363265</v>
       </c>
       <c r="H17">
-        <v>5.928295402286534</v>
+        <v>5.918543746972479</v>
       </c>
       <c r="J17">
-        <v>10.49530140256048</v>
+        <v>10.32967735381244</v>
       </c>
       <c r="K17">
-        <v>15.38845887671885</v>
+        <v>14.53483098148635</v>
       </c>
       <c r="L17">
-        <v>5.618102634852797</v>
+        <v>11.9220346725298</v>
       </c>
       <c r="M17">
-        <v>13.00066139141197</v>
+        <v>9.671779767456847</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.6246544795906</v>
       </c>
       <c r="O17">
-        <v>10.72191148586801</v>
+        <v>12.92305125053605</v>
       </c>
       <c r="P17">
-        <v>12.77601655813063</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.72393437116416</v>
+      </c>
+      <c r="R17">
+        <v>12.64048569125167</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.63763236967745</v>
+        <v>14.22467702210317</v>
       </c>
       <c r="C18">
-        <v>8.551003606198137</v>
+        <v>9.19323000446475</v>
       </c>
       <c r="D18">
-        <v>5.381609091998977</v>
+        <v>5.620580717337044</v>
       </c>
       <c r="E18">
-        <v>7.384259439473919</v>
+        <v>7.489795580475661</v>
       </c>
       <c r="F18">
-        <v>25.20799373388921</v>
+        <v>24.23345410234031</v>
       </c>
       <c r="G18">
-        <v>30.59121482351937</v>
+        <v>28.64107058671388</v>
       </c>
       <c r="H18">
-        <v>4.710671747642493</v>
+        <v>4.697351128361151</v>
       </c>
       <c r="J18">
-        <v>10.72588643836369</v>
+        <v>10.60222818161436</v>
       </c>
       <c r="K18">
-        <v>15.78718931313684</v>
+        <v>14.89524450128281</v>
       </c>
       <c r="L18">
-        <v>5.726135058185662</v>
+        <v>12.20171072860508</v>
       </c>
       <c r="M18">
-        <v>12.98958783780936</v>
+        <v>9.930153118917104</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.730029751774834</v>
       </c>
       <c r="O18">
-        <v>11.27626652133582</v>
+        <v>12.91928105094258</v>
       </c>
       <c r="P18">
-        <v>12.866391946186</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.28195360317569</v>
+      </c>
+      <c r="R18">
+        <v>12.70575846721569</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.70818632115517</v>
+        <v>14.25851478562278</v>
       </c>
       <c r="C19">
-        <v>8.834651095080908</v>
+        <v>9.544806013582239</v>
       </c>
       <c r="D19">
-        <v>5.854351114523467</v>
+        <v>6.110699782293114</v>
       </c>
       <c r="E19">
-        <v>8.349682191203895</v>
+        <v>8.46808317284632</v>
       </c>
       <c r="F19">
-        <v>26.46370947009706</v>
+        <v>25.41463671907099</v>
       </c>
       <c r="G19">
-        <v>32.17853608911341</v>
+        <v>30.06440136433783</v>
       </c>
       <c r="H19">
-        <v>3.281482026656905</v>
+        <v>3.264534898736374</v>
       </c>
       <c r="J19">
-        <v>11.02120152729237</v>
+        <v>10.88538273939976</v>
       </c>
       <c r="K19">
-        <v>16.29166385565383</v>
+        <v>15.32679478072468</v>
       </c>
       <c r="L19">
-        <v>6.004235826312619</v>
+        <v>12.52398145517003</v>
       </c>
       <c r="M19">
-        <v>13.12461024912128</v>
+        <v>10.26718730585456</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.001605207583338</v>
       </c>
       <c r="O19">
-        <v>12.07128530575436</v>
+        <v>13.05015554856664</v>
       </c>
       <c r="P19">
-        <v>12.95420798144294</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.0779021819441</v>
+      </c>
+      <c r="R19">
+        <v>12.76312218442902</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.19340991954118</v>
+        <v>14.64603313565743</v>
       </c>
       <c r="C20">
-        <v>9.487868522814948</v>
+        <v>10.29989126179263</v>
       </c>
       <c r="D20">
-        <v>6.681272258719343</v>
+        <v>6.983789328322803</v>
       </c>
       <c r="E20">
-        <v>10.17961341531771</v>
+        <v>10.3144039381789</v>
       </c>
       <c r="F20">
-        <v>28.59401819823642</v>
+        <v>27.33193420059192</v>
       </c>
       <c r="G20">
-        <v>34.88253663750687</v>
+        <v>32.7020583790059</v>
       </c>
       <c r="H20">
-        <v>1.798939541471946</v>
+        <v>1.787270026539954</v>
       </c>
       <c r="J20">
-        <v>11.486956329952</v>
+        <v>11.18017840440329</v>
       </c>
       <c r="K20">
-        <v>17.07351042441744</v>
+        <v>15.93830369081072</v>
       </c>
       <c r="L20">
-        <v>6.684411264944233</v>
+        <v>12.92953125616333</v>
       </c>
       <c r="M20">
-        <v>13.65462886044244</v>
+        <v>10.82851679173769</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.665699421804374</v>
       </c>
       <c r="O20">
-        <v>13.47719809719808</v>
+        <v>13.5469386636973</v>
       </c>
       <c r="P20">
-        <v>13.02522132261903</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.47703140745381</v>
+      </c>
+      <c r="R20">
+        <v>12.78361614708966</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.14041526471855</v>
+        <v>15.43912852114991</v>
       </c>
       <c r="C21">
-        <v>10.11359446936599</v>
+        <v>10.83403560601253</v>
       </c>
       <c r="D21">
-        <v>7.055252595571554</v>
+        <v>7.469459032225717</v>
       </c>
       <c r="E21">
-        <v>10.7439681262304</v>
+        <v>10.91160834707952</v>
       </c>
       <c r="F21">
-        <v>29.50411043712144</v>
+        <v>27.74437734978104</v>
       </c>
       <c r="G21">
-        <v>36.1010120089497</v>
+        <v>35.25195788590695</v>
       </c>
       <c r="H21">
-        <v>1.644979142730404</v>
+        <v>1.622819488807097</v>
       </c>
       <c r="J21">
-        <v>11.61076473118472</v>
+        <v>10.38994894759703</v>
       </c>
       <c r="K21">
-        <v>17.23788463056347</v>
+        <v>15.80823179249372</v>
       </c>
       <c r="L21">
-        <v>6.897380058504647</v>
+        <v>12.68553659421902</v>
       </c>
       <c r="M21">
-        <v>14.48784599100497</v>
+        <v>10.97045362355253</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.856749416775379</v>
       </c>
       <c r="O21">
-        <v>14.19409426053664</v>
+        <v>14.25222671638575</v>
       </c>
       <c r="P21">
-        <v>12.81903305148542</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.14941939168531</v>
+      </c>
+      <c r="R21">
+        <v>12.54709016093453</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.72431771354265</v>
+        <v>15.92560655617186</v>
       </c>
       <c r="C22">
-        <v>10.48423213653922</v>
+        <v>11.13310816871185</v>
       </c>
       <c r="D22">
-        <v>7.257699668711141</v>
+        <v>7.74733384574101</v>
       </c>
       <c r="E22">
-        <v>11.01784452952133</v>
+        <v>11.20928680683308</v>
       </c>
       <c r="F22">
-        <v>30.01061240234538</v>
+        <v>27.91160570961206</v>
       </c>
       <c r="G22">
-        <v>36.79014330983892</v>
+        <v>36.918077243277</v>
       </c>
       <c r="H22">
-        <v>1.832121667238075</v>
+        <v>1.788632166079593</v>
       </c>
       <c r="J22">
-        <v>11.6752191538697</v>
+        <v>9.849191124861536</v>
       </c>
       <c r="K22">
-        <v>17.31784203254477</v>
+        <v>15.68567649392154</v>
       </c>
       <c r="L22">
-        <v>6.998606558014347</v>
+        <v>12.50097755769362</v>
       </c>
       <c r="M22">
-        <v>14.99733166125514</v>
+        <v>11.04099724662352</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.944392368685411</v>
       </c>
       <c r="O22">
-        <v>14.5920831052309</v>
+        <v>14.67637113120587</v>
       </c>
       <c r="P22">
-        <v>12.67823844205045</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.51646922839977</v>
+      </c>
+      <c r="R22">
+        <v>12.38828121928157</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.4150007293618</v>
+        <v>15.67561713884651</v>
       </c>
       <c r="C23">
-        <v>10.28786067884351</v>
+        <v>10.99605849501741</v>
       </c>
       <c r="D23">
-        <v>7.150284351146745</v>
+        <v>7.589347987238414</v>
       </c>
       <c r="E23">
-        <v>10.87242894826771</v>
+        <v>11.046529466389</v>
       </c>
       <c r="F23">
-        <v>29.73997188266114</v>
+        <v>27.86409011372269</v>
       </c>
       <c r="G23">
-        <v>36.42163016066689</v>
+        <v>35.852801348418</v>
       </c>
       <c r="H23">
-        <v>1.732564282634622</v>
+        <v>1.701574387828165</v>
       </c>
       <c r="J23">
-        <v>11.64034646246351</v>
+        <v>10.22542529251619</v>
       </c>
       <c r="K23">
-        <v>17.27427797310384</v>
+        <v>15.77328677029535</v>
       </c>
       <c r="L23">
-        <v>6.944767014928876</v>
+        <v>12.61438077680524</v>
       </c>
       <c r="M23">
-        <v>14.72738200158615</v>
+        <v>11.02128250734505</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.898611961175487</v>
       </c>
       <c r="O23">
-        <v>14.38083020173477</v>
+        <v>14.46334405079726</v>
       </c>
       <c r="P23">
-        <v>12.7532577285413</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.32634615999165</v>
+      </c>
+      <c r="R23">
+        <v>12.47626561459476</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.19221826207314</v>
+        <v>14.64215944010505</v>
       </c>
       <c r="C24">
-        <v>9.512200192766752</v>
+        <v>10.33148575166496</v>
       </c>
       <c r="D24">
-        <v>6.729625569974947</v>
+        <v>7.033158786193006</v>
       </c>
       <c r="E24">
-        <v>10.30515358293273</v>
+        <v>10.44073825293041</v>
       </c>
       <c r="F24">
-        <v>28.72222621701163</v>
+        <v>27.45555568503968</v>
       </c>
       <c r="G24">
-        <v>35.04209646281222</v>
+        <v>32.8365530984098</v>
       </c>
       <c r="H24">
-        <v>1.778160683025488</v>
+        <v>1.766512162224875</v>
       </c>
       <c r="J24">
-        <v>11.51847952561594</v>
+        <v>11.21603460847418</v>
       </c>
       <c r="K24">
-        <v>17.12843562686675</v>
+        <v>15.98719420937731</v>
       </c>
       <c r="L24">
-        <v>6.736763935301418</v>
+        <v>12.96773076087895</v>
       </c>
       <c r="M24">
-        <v>13.66147028306548</v>
+        <v>10.86415309460449</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.717566359669012</v>
       </c>
       <c r="O24">
-        <v>13.55551502522064</v>
+        <v>13.5541674781922</v>
       </c>
       <c r="P24">
-        <v>13.04023440167916</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.55569187890807</v>
+      </c>
+      <c r="R24">
+        <v>12.79489051123507</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.76202099264891</v>
+        <v>13.33963244580767</v>
       </c>
       <c r="C25">
-        <v>8.606101763188768</v>
+        <v>9.299468457844268</v>
       </c>
       <c r="D25">
-        <v>6.24710133940031</v>
+        <v>6.517507563414256</v>
       </c>
       <c r="E25">
-        <v>9.658768289270697</v>
+        <v>9.803425551310569</v>
       </c>
       <c r="F25">
-        <v>27.64289248198934</v>
+        <v>26.5691904554106</v>
       </c>
       <c r="G25">
-        <v>33.59224393418044</v>
+        <v>31.5396543564222</v>
       </c>
       <c r="H25">
-        <v>2.219992051007546</v>
+        <v>2.175464443128599</v>
       </c>
       <c r="J25">
-        <v>11.40778025698726</v>
+        <v>11.1910593384848</v>
       </c>
       <c r="K25">
-        <v>17.00956036987284</v>
+        <v>15.99776780439064</v>
       </c>
       <c r="L25">
-        <v>6.503768042742716</v>
+        <v>13.18590748680953</v>
       </c>
       <c r="M25">
-        <v>12.41763518346441</v>
+        <v>10.56459777257056</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.504424568520703</v>
       </c>
       <c r="O25">
-        <v>12.61354506977497</v>
+        <v>12.35198140725903</v>
       </c>
       <c r="P25">
-        <v>13.35648045957906</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>12.62073105656004</v>
+      </c>
+      <c r="R25">
+        <v>13.10552921566433</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
